--- a/assets/maps.xlsx
+++ b/assets/maps.xlsx
@@ -32916,7 +32916,7 @@
   <dimension ref="A1:AD30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R14" sqref="R14:R17"/>
+      <selection activeCell="AH27" sqref="AH27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
